--- a/system_design.xlsx
+++ b/system_design.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi_rapih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5834F3E-D063-46CA-A2EA-2C956C8A87AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EDA66D-6EEA-4D34-8167-038F60FF3A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>Nama</t>
   </si>
@@ -236,13 +237,112 @@
   </si>
   <si>
     <t>no_hp_kel</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>KEGIATAN</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Tampilan Login</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username salah </t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>Tampilan login baik</t>
+  </si>
+  <si>
+    <t>Muncul alert "username tidak ditemukan"</t>
+  </si>
+  <si>
+    <t>Username dan password tidak diisi</t>
+  </si>
+  <si>
+    <t>Muncul alert "username field is required"</t>
+  </si>
+  <si>
+    <t>Password salah</t>
+  </si>
+  <si>
+    <t>Muncul alert "password anda salah"</t>
+  </si>
+  <si>
+    <t>Klik "lupa password"</t>
+  </si>
+  <si>
+    <t>Muncul alert "hubungi pihak HRD"</t>
+  </si>
+  <si>
+    <t>Username dan password benar</t>
+  </si>
+  <si>
+    <t>Login case sensitive karakter</t>
+  </si>
+  <si>
+    <t>Case sensitive berlaku untuk password</t>
+  </si>
+  <si>
+    <t>Masuk Dashboard sesuai level user</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Keluar sistem dan harus memasukkan ulang username dan password</t>
+  </si>
+  <si>
+    <t>PEGAWAI</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Tampilan Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard menampilkan 3 card, jumlah tugas hari ini, tugas yang masih pending dan KPI kumulatif</t>
+  </si>
+  <si>
+    <t>Klik "Tugas hari ini"</t>
+  </si>
+  <si>
+    <t>Masuk ke halaman daily activity</t>
+  </si>
+  <si>
+    <t>Klik "Tugas Pending"</t>
+  </si>
+  <si>
+    <t>Klik " KPI Kumulatif"</t>
+  </si>
+  <si>
+    <t>Masuk ke halaman evalusai</t>
+  </si>
+  <si>
+    <t>FITUR/HALAMAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +384,23 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,10 +425,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -323,12 +480,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -336,6 +490,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,9 +591,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -414,7 +603,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761EA7FE-AEA8-4428-A7FE-A7D7A725D440}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -460,7 +649,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6C8A32-93F1-4E6C-B651-A1649F4E47F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,7 +711,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57AE401-097F-4A2B-8610-0BA687C9CF2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,7 +773,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E561004B-6CEE-40B7-8C61-9F963A441DD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,9 +827,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -650,7 +839,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB01DAF-B603-46B5-9258-124183FEA3BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -696,7 +885,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2648C3A0-27A6-4C10-BF75-5CA41D65EDED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +947,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7356BF0-FE06-4F4F-A2A4-5C3C9ED22949}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,7 +1009,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F05961-2E0B-44AB-8F91-EFC7A98EF5C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -874,9 +1063,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -886,7 +1075,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE410DE-244C-4A26-BC0C-64FCA8F9C840}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -932,7 +1121,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D702E4B2-AA52-412D-86EB-204A5441A4DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,7 +1183,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E595CE-9747-44DA-9D88-B85DFE40FF2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1245,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5CCA02-6C15-40A9-8D92-EB391AE3F546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1110,9 +1299,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1122,7 +1311,7 @@
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C5F933-682C-4701-836C-C04712D6D6EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1168,7 +1357,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B0546A-8F79-41F5-9925-66518D75B64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1419,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506D177D-F0AC-43DB-9469-6DD6D9018D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1481,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A18B61-0DF1-4FC0-AA1C-C7E18BED099F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,9 +1535,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1358,7 +1547,7 @@
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C7B8F9-372D-4020-B2A6-39896E452FB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1404,7 +1593,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7BC6B2-2A29-4B4E-9158-BFEF46349616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1655,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A901AFA6-D34C-4150-AAB3-F847BFA528CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1717,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF894292-01AE-49E9-B3E1-044AB0CDEF2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,9 +1771,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1594,7 +1783,7 @@
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF7C794-0A24-4549-AFF9-D6E9D0BE3253}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1640,7 +1829,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E248D6-F18E-47F5-937F-76804A12D14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1891,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE637BCB-3D0F-4D61-B1A7-6EF70311DF3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1953,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A942F91C-48D2-4A58-BD6E-9917DC013007}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,9 +2007,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1830,7 +2019,7 @@
                   <a14:compatExt spid="_x0000_s2073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CC0813-C1A5-42AF-B663-265217A43345}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1876,7 +2065,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156E0C46-92E7-4463-B0C8-45314ADDB33E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +2127,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C9E8AE-4D0A-4709-ABB9-ED53E6DD53ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2189,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB1C1F2-C487-4098-9AC9-DB5736375C16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,9 +2243,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2066,7 +2255,7 @@
                   <a14:compatExt spid="_x0000_s2077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C484F49C-021D-4529-BF6D-8104B7F0B644}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2112,7 +2301,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306B8073-8CFB-4C5E-91C5-990A46EDED22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2363,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6243FA3-0073-41A0-B6F0-23BB38629D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2425,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F897CC-16F4-4372-8F17-7BE0F740ED4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,9 +2479,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2302,7 +2491,7 @@
                   <a14:compatExt spid="_x0000_s2081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449E4EEE-282D-40A8-ACBF-1171976D95A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2348,7 +2537,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997AA04A-475B-4648-9F31-C2081BF8AED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2599,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85B8C42-1F8A-4F9D-A124-3CB26B1EC664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2661,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C29FF5-9EA4-44D8-8BBD-FD1440C32547}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,240 +3006,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31A1656-F5AD-4B80-9694-AEB38E396220}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="31.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="19.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3072,38 +3261,38 @@
       <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3117,7 +3306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3131,7 +3320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3145,7 +3334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3159,7 +3348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>5</v>
       </c>
@@ -3167,7 +3356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>6</v>
       </c>
@@ -3175,7 +3364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>7</v>
       </c>
@@ -3183,7 +3372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>8</v>
       </c>
@@ -3191,7 +3380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>9</v>
       </c>
@@ -3206,8 +3395,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId3" name="Control 33">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2049" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3217,22 +3406,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId3" name="Control 33"/>
+        <control shapeId="2049" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId5" name="Control 29">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2053" r:id="rId5" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3242,22 +3431,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId5" name="Control 29"/>
+        <control shapeId="2053" r:id="rId5" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId6" name="Control 25">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2057" r:id="rId6" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3267,22 +3456,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId6" name="Control 25"/>
+        <control shapeId="2057" r:id="rId6" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId7" name="Control 21">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2061" r:id="rId7" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3292,22 +3481,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId7" name="Control 21"/>
+        <control shapeId="2061" r:id="rId7" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="2065" r:id="rId8" name="Control 17">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3317,9 +3506,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3331,8 +3520,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId9" name="Control 13">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2069" r:id="rId9" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3342,22 +3531,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId9" name="Control 13"/>
+        <control shapeId="2069" r:id="rId9" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId10" name="Control 9">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2073" r:id="rId10" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3367,22 +3556,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId10" name="Control 9"/>
+        <control shapeId="2073" r:id="rId10" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId11" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2077" r:id="rId11" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3392,22 +3581,22 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId11" name="Control 5"/>
+        <control shapeId="2077" r:id="rId11" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId12" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId4">
+        <control shapeId="2081" r:id="rId12" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3417,18 +3606,402 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId12" name="Control 1"/>
+        <control shapeId="2081" r:id="rId12" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859460C9-BB59-4BB7-ADB7-5A80F696652A}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="81.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/system_design.xlsx
+++ b/system_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi_rapih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EDA66D-6EEA-4D34-8167-038F60FF3A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77689664-C3A4-4F0B-94A2-81F1040A6F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
   </bookViews>
@@ -490,9 +490,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,12 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,6 +514,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3162,7 +3162,7 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3170,13 +3170,13 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -3395,7 +3395,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId3" name="Control 1">
+        <control shapeId="2081" r:id="rId3" name="Control 33">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3415,12 +3415,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId3" name="Control 1"/>
+        <control shapeId="2081" r:id="rId3" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId5" name="Control 5">
+        <control shapeId="2077" r:id="rId5" name="Control 29">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3440,12 +3440,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId5" name="Control 5"/>
+        <control shapeId="2077" r:id="rId5" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId6" name="Control 9">
+        <control shapeId="2073" r:id="rId6" name="Control 25">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3465,12 +3465,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId6" name="Control 9"/>
+        <control shapeId="2073" r:id="rId6" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId7" name="Control 13">
+        <control shapeId="2069" r:id="rId7" name="Control 21">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3490,7 +3490,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId7" name="Control 13"/>
+        <control shapeId="2069" r:id="rId7" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3520,7 +3520,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId9" name="Control 21">
+        <control shapeId="2061" r:id="rId9" name="Control 13">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3540,12 +3540,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId9" name="Control 21"/>
+        <control shapeId="2061" r:id="rId9" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId10" name="Control 25">
+        <control shapeId="2057" r:id="rId10" name="Control 9">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3565,12 +3565,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId10" name="Control 25"/>
+        <control shapeId="2057" r:id="rId10" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId11" name="Control 29">
+        <control shapeId="2053" r:id="rId11" name="Control 5">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3590,12 +3590,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId11" name="Control 29"/>
+        <control shapeId="2053" r:id="rId11" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId12" name="Control 33">
+        <control shapeId="2049" r:id="rId12" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3615,7 +3615,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId12" name="Control 33"/>
+        <control shapeId="2049" r:id="rId12" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3635,367 +3635,367 @@
     <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="81.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="81.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/system_design.xlsx
+++ b/system_design.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi_rapih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77689664-C3A4-4F0B-94A2-81F1040A6F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E2786-BECC-47EC-A78E-D369134EABA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TESTING" sheetId="3" r:id="rId3"/>
+    <sheet name="ERROR PAGE" sheetId="5" r:id="rId4"/>
+    <sheet name="NOTIFIKASI" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
   <si>
     <t>Nama</t>
   </si>
@@ -336,6 +338,141 @@
   </si>
   <si>
     <t>FITUR/HALAMAN</t>
+  </si>
+  <si>
+    <t>YANG PERLU NOTIFIKASI</t>
+  </si>
+  <si>
+    <t>KARYAWAN</t>
+  </si>
+  <si>
+    <t>Halaman</t>
+  </si>
+  <si>
+    <t>Proses</t>
+  </si>
+  <si>
+    <t>LEADER</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>HRD</t>
+  </si>
+  <si>
+    <t>DIREKSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Tambah daily Activity</t>
+  </si>
+  <si>
+    <t>dailly</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>Update daily Activity</t>
+  </si>
+  <si>
+    <t>Hapus daily activity</t>
+  </si>
+  <si>
+    <t>Monitoring/daily</t>
+  </si>
+  <si>
+    <t>Update monitoring</t>
+  </si>
+  <si>
+    <t>Evaluasi/kpivalue</t>
+  </si>
+  <si>
+    <t>Tambah KPI Pegawai</t>
+  </si>
+  <si>
+    <t>Hapus KPI Pegawai</t>
+  </si>
+  <si>
+    <t>Jurnal/jurnal_list</t>
+  </si>
+  <si>
+    <t>Tambah Jurnal Pegawai</t>
+  </si>
+  <si>
+    <t>Hapus Jurnal Pegawai</t>
+  </si>
+  <si>
+    <t>Data_pribadi/data_pribadi</t>
+  </si>
+  <si>
+    <t>Tambah status kepegawaian</t>
+  </si>
+  <si>
+    <t>Ubah status kepegawaian</t>
+  </si>
+  <si>
+    <t>Hapus status kepegawaian</t>
+  </si>
+  <si>
+    <t>Data_karyawan/karyawan_detail</t>
+  </si>
+  <si>
+    <t>Tambah data karyawan</t>
+  </si>
+  <si>
+    <t>Ubah data karyawan</t>
+  </si>
+  <si>
+    <t>Hapus data karyawan</t>
+  </si>
+  <si>
+    <t>Tambah gaji karyawan</t>
+  </si>
+  <si>
+    <t>Evaluasi/kpi</t>
+  </si>
+  <si>
+    <t>Tambah KPI</t>
+  </si>
+  <si>
+    <t>Ubah KPI</t>
+  </si>
+  <si>
+    <t>Hapus KPI</t>
+  </si>
+  <si>
+    <t>Gaji/gaji_view</t>
+  </si>
+  <si>
+    <t>Ubah gaji karyawan</t>
+  </si>
+  <si>
+    <t>Hapus gaji karyawan</t>
+  </si>
+  <si>
+    <t>HRD - Menghilangkan kolom aksi jika masuk dari halaman Gaji</t>
+  </si>
+  <si>
+    <t>HRD - Width halaman Gaji</t>
+  </si>
+  <si>
+    <t>HRD - Menambahkan foto notifikasi status kepegawaian yang hampir habis</t>
+  </si>
+  <si>
+    <t>DIREKSI - Link button kinerja pada data karyawan</t>
+  </si>
+  <si>
+    <t>DIREKSI - Menghilangkan aksi jika yang dilihat daily activity leader</t>
+  </si>
+  <si>
+    <t>monitoring daily</t>
+  </si>
+  <si>
+    <t>Update daily activity pegawai</t>
   </si>
 </sst>
 </file>
@@ -400,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +580,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -480,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -516,6 +677,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -525,6 +693,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3162,7 +3334,7 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3170,13 +3342,13 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -3626,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859460C9-BB59-4BB7-ADB7-5A80F696652A}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3640,13 +3812,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -4004,4 +4176,603 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB2E4F7-73AC-4D97-83D3-586E94E634B0}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="25">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6457C4-1A0D-4898-973D-C50AED28626A}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="25">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="25">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="25">
+        <v>4</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="25">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="25">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="25">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="25">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="25">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="25">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="25">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="25">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="25">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="25">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="25">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="25">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="25">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="25">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="25">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="25">
+        <v>9</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="25">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="25">
+        <v>11</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="25">
+        <v>12</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G16" s="25">
+        <v>13</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="25">
+        <v>14</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="25">
+        <v>15</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/system_design.xlsx
+++ b/system_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi_rapih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E2786-BECC-47EC-A78E-D369134EABA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6DAA9E-6D4B-4643-B1C9-C10D9A1E661C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t>Nama</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>Update daily activity pegawai</t>
+  </si>
+  <si>
+    <t>LEADER - Link back pagination kinerja</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -684,6 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -696,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3334,7 +3338,7 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3342,13 +3346,13 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -3567,7 +3571,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId3" name="Control 33">
+        <control shapeId="2049" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3587,12 +3591,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId3" name="Control 33"/>
+        <control shapeId="2049" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId5" name="Control 29">
+        <control shapeId="2053" r:id="rId5" name="Control 5">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3612,12 +3616,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId5" name="Control 29"/>
+        <control shapeId="2053" r:id="rId5" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId6" name="Control 25">
+        <control shapeId="2057" r:id="rId6" name="Control 9">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3637,12 +3641,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId6" name="Control 25"/>
+        <control shapeId="2057" r:id="rId6" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId7" name="Control 21">
+        <control shapeId="2061" r:id="rId7" name="Control 13">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3662,7 +3666,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId7" name="Control 21"/>
+        <control shapeId="2061" r:id="rId7" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3692,7 +3696,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId9" name="Control 13">
+        <control shapeId="2069" r:id="rId9" name="Control 21">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3712,12 +3716,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId9" name="Control 13"/>
+        <control shapeId="2069" r:id="rId9" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId10" name="Control 9">
+        <control shapeId="2073" r:id="rId10" name="Control 25">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3737,12 +3741,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId10" name="Control 9"/>
+        <control shapeId="2073" r:id="rId10" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId11" name="Control 5">
+        <control shapeId="2077" r:id="rId11" name="Control 29">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3762,12 +3766,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId11" name="Control 5"/>
+        <control shapeId="2077" r:id="rId11" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId12" name="Control 1">
+        <control shapeId="2081" r:id="rId12" name="Control 33">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3787,7 +3791,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId12" name="Control 1"/>
+        <control shapeId="2081" r:id="rId12" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3812,13 +3816,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -4183,7 +4187,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4196,7 +4200,7 @@
       <c r="A1" s="25">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="31" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4220,7 +4224,7 @@
       <c r="A4" s="25">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="31" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4236,7 +4240,9 @@
       <c r="A6" s="25">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
@@ -4326,7 +4332,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4345,42 +4351,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
@@ -4427,7 +4433,7 @@
       <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="31" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="25">
@@ -4436,7 +4442,7 @@
       <c r="E4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="25">
@@ -4445,7 +4451,7 @@
       <c r="H4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="31" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="25">
@@ -4465,7 +4471,7 @@
       <c r="B5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="25">
@@ -4474,7 +4480,7 @@
       <c r="E5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="31" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="25">
@@ -4483,7 +4489,7 @@
       <c r="H5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="31" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="25">
@@ -4499,7 +4505,7 @@
       <c r="B6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="25">
@@ -4508,7 +4514,7 @@
       <c r="E6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="31" t="s">
         <v>116</v>
       </c>
       <c r="G6" s="25">
@@ -4517,7 +4523,7 @@
       <c r="H6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="31" t="s">
         <v>116</v>
       </c>
       <c r="J6" s="25">
@@ -4538,7 +4544,7 @@
       <c r="E7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="25">
@@ -4547,7 +4553,7 @@
       <c r="H7" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="31" t="s">
         <v>126</v>
       </c>
       <c r="J7" s="25">
@@ -4568,7 +4574,7 @@
       <c r="E8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G8" s="25">
@@ -4577,7 +4583,7 @@
       <c r="H8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="31" t="s">
         <v>127</v>
       </c>
       <c r="J8" s="25">
@@ -4598,7 +4604,7 @@
       <c r="E9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G9" s="25">
@@ -4607,7 +4613,7 @@
       <c r="H9" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J9" s="25">
@@ -4628,7 +4634,7 @@
       <c r="E10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="31" t="s">
         <v>123</v>
       </c>
       <c r="G10" s="25">
@@ -4637,7 +4643,7 @@
       <c r="H10" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="31" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="25">
@@ -4656,7 +4662,7 @@
       <c r="E11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="31" t="s">
         <v>124</v>
       </c>
       <c r="G11" s="25">
@@ -4665,7 +4671,7 @@
       <c r="H11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="31" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="25">
@@ -4689,7 +4695,7 @@
       <c r="H12" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="31" t="s">
         <v>132</v>
       </c>
       <c r="J12" s="25">
@@ -4705,7 +4711,7 @@
       <c r="H13" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="31" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4713,10 +4719,10 @@
       <c r="G14" s="25">
         <v>11</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="31" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4724,10 +4730,10 @@
       <c r="G15" s="25">
         <v>12</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="31" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4735,10 +4741,10 @@
       <c r="G16" s="25">
         <v>13</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="31" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4746,10 +4752,10 @@
       <c r="G17" s="25">
         <v>14</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="31" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4757,10 +4763,10 @@
       <c r="G18" s="25">
         <v>15</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="31" t="s">
         <v>140</v>
       </c>
     </row>

--- a/system_design.xlsx
+++ b/system_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skripsi_rapih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6DAA9E-6D4B-4643-B1C9-C10D9A1E661C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DAA60D-4023-4B23-817C-D3287C6D2CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{4E25A8A6-00AD-45C3-9420-B064DE19FE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TESTING" sheetId="3" r:id="rId3"/>
     <sheet name="ERROR PAGE" sheetId="5" r:id="rId4"/>
     <sheet name="NOTIFIKASI" sheetId="4" r:id="rId5"/>
+    <sheet name="TESTING PAGINATION" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="173">
   <si>
     <t>Nama</t>
   </si>
@@ -476,6 +477,78 @@
   </si>
   <si>
     <t>LEADER - Link back pagination kinerja</t>
+  </si>
+  <si>
+    <t>Data Pribadi</t>
+  </si>
+  <si>
+    <t>tampilan data pribadi</t>
+  </si>
+  <si>
+    <t>Data yang ditampilkan sudah sesuai dengan data yang di inputkan</t>
+  </si>
+  <si>
+    <t>klik "home"</t>
+  </si>
+  <si>
+    <t>Kembali ke halaman dashboard</t>
+  </si>
+  <si>
+    <t>klik "lihat detail gaji"</t>
+  </si>
+  <si>
+    <t>Menampilkan detail gaji sesuai data yang dimasukkan</t>
+  </si>
+  <si>
+    <t>Daily Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tampilan </t>
+  </si>
+  <si>
+    <t>Menampilkan data daily activty sessuai yang dimasukkan</t>
+  </si>
+  <si>
+    <t>klik "tambah tugas baru"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menampilkan form tambah tugas baru </t>
+  </si>
+  <si>
+    <t>klik " kembali"</t>
+  </si>
+  <si>
+    <t>Kembali ke halaman daily activity</t>
+  </si>
+  <si>
+    <t>klik "simpan"</t>
+  </si>
+  <si>
+    <t>Menyimpan data dan kembali ke halaman daily activity dan menampilkan hasil input data nya</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Pagination berjalan dengan baik</t>
+  </si>
+  <si>
+    <t>PAGINATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily activity karyawan </t>
+  </si>
+  <si>
+    <t>klik "hapus"</t>
+  </si>
+  <si>
+    <t>data berhasil dihapus dan muncul notifikasi "data berhasil di hapus"</t>
+  </si>
+  <si>
+    <t>klik "update"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berhasil </t>
   </si>
 </sst>
 </file>
@@ -644,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -688,6 +761,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -700,7 +774,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3338,7 +3420,7 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3346,13 +3428,13 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -3571,7 +3653,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId3" name="Control 1">
+        <control shapeId="2081" r:id="rId3" name="Control 33">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3591,12 +3673,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId3" name="Control 1"/>
+        <control shapeId="2081" r:id="rId3" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId5" name="Control 5">
+        <control shapeId="2077" r:id="rId5" name="Control 29">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3616,12 +3698,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId5" name="Control 5"/>
+        <control shapeId="2077" r:id="rId5" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId6" name="Control 9">
+        <control shapeId="2073" r:id="rId6" name="Control 25">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3641,12 +3723,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId6" name="Control 9"/>
+        <control shapeId="2073" r:id="rId6" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId7" name="Control 13">
+        <control shapeId="2069" r:id="rId7" name="Control 21">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3666,7 +3748,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId7" name="Control 13"/>
+        <control shapeId="2069" r:id="rId7" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3696,7 +3778,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId9" name="Control 21">
+        <control shapeId="2061" r:id="rId9" name="Control 13">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3716,12 +3798,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId9" name="Control 21"/>
+        <control shapeId="2061" r:id="rId9" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId10" name="Control 25">
+        <control shapeId="2057" r:id="rId10" name="Control 9">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3741,12 +3823,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId10" name="Control 25"/>
+        <control shapeId="2057" r:id="rId10" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId11" name="Control 29">
+        <control shapeId="2053" r:id="rId11" name="Control 5">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3766,12 +3848,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId11" name="Control 29"/>
+        <control shapeId="2053" r:id="rId11" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId12" name="Control 33">
+        <control shapeId="2049" r:id="rId12" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3791,7 +3873,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId12" name="Control 33"/>
+        <control shapeId="2049" r:id="rId12" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3802,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859460C9-BB59-4BB7-ADB7-5A80F696652A}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3816,13 +3898,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -4042,90 +4124,152 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4186,7 +4330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB2E4F7-73AC-4D97-83D3-586E94E634B0}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4200,7 +4344,7 @@
       <c r="A1" s="25">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4224,7 +4368,7 @@
       <c r="A4" s="25">
         <v>4</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4351,42 +4495,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
@@ -4433,7 +4577,7 @@
       <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="25">
@@ -4442,7 +4586,7 @@
       <c r="E4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="25">
@@ -4451,7 +4595,7 @@
       <c r="H4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="25">
@@ -4471,7 +4615,7 @@
       <c r="B5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="25">
@@ -4480,7 +4624,7 @@
       <c r="E5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="27" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="25">
@@ -4489,7 +4633,7 @@
       <c r="H5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>115</v>
       </c>
       <c r="J5" s="25">
@@ -4505,7 +4649,7 @@
       <c r="B6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="25">
@@ -4514,7 +4658,7 @@
       <c r="E6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="27" t="s">
         <v>116</v>
       </c>
       <c r="G6" s="25">
@@ -4523,7 +4667,7 @@
       <c r="H6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>116</v>
       </c>
       <c r="J6" s="25">
@@ -4544,7 +4688,7 @@
       <c r="E7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="25">
@@ -4553,7 +4697,7 @@
       <c r="H7" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>126</v>
       </c>
       <c r="J7" s="25">
@@ -4574,7 +4718,7 @@
       <c r="E8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>120</v>
       </c>
       <c r="G8" s="25">
@@ -4583,7 +4727,7 @@
       <c r="H8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="27" t="s">
         <v>127</v>
       </c>
       <c r="J8" s="25">
@@ -4604,7 +4748,7 @@
       <c r="E9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="27" t="s">
         <v>121</v>
       </c>
       <c r="G9" s="25">
@@ -4613,7 +4757,7 @@
       <c r="H9" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="27" t="s">
         <v>128</v>
       </c>
       <c r="J9" s="25">
@@ -4634,7 +4778,7 @@
       <c r="E10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>123</v>
       </c>
       <c r="G10" s="25">
@@ -4643,7 +4787,7 @@
       <c r="H10" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="27" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="25">
@@ -4662,7 +4806,7 @@
       <c r="E11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="27" t="s">
         <v>124</v>
       </c>
       <c r="G11" s="25">
@@ -4671,7 +4815,7 @@
       <c r="H11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="27" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="25">
@@ -4695,7 +4839,7 @@
       <c r="H12" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="27" t="s">
         <v>132</v>
       </c>
       <c r="J12" s="25">
@@ -4711,7 +4855,7 @@
       <c r="H13" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4722,7 +4866,7 @@
       <c r="H14" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="27" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4733,7 +4877,7 @@
       <c r="H15" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="27" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4744,7 +4888,7 @@
       <c r="H16" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="27" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4755,7 +4899,7 @@
       <c r="H17" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4766,7 +4910,7 @@
       <c r="H18" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="27" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4781,4 +4925,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AFBBF-6E8E-48F2-A719-E8EB05296EFC}">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>